--- a/data/buyer_best_personals.xlsx
+++ b/data/buyer_best_personals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">personal</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Suburban (An area that is residential and on the outskirts of a city)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rural (An area that is outside of town or city and has a small population)</t>
   </si>
   <si>
@@ -77,33 +74,33 @@
     <t xml:space="preserve">Most nights (Four or more nights during a typical week)</t>
   </si>
   <si>
-    <t xml:space="preserve">m1_philosophy_1</t>
+    <t xml:space="preserve">Sometimes (Two or three nights during a typical week)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1_philosophy_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase buying odds by factor 5.49988e+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1_philosophy_3</t>
   </si>
   <si>
     <t xml:space="preserve">Strongly disagree</t>
   </si>
   <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neither agree or disagree</t>
   </si>
   <si>
-    <t xml:space="preserve">Strongly agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1_philosophy_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somewhat disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase buying odds by factor 7.44992e+00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1_philosophy_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Somewhat agree</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t xml:space="preserve">m2_awareness_apps_14</t>
   </si>
   <si>
-    <t xml:space="preserve">increase buying odds by factor 4.37517e+00</t>
+    <t xml:space="preserve">Not applicable, I have not heard of any of these products</t>
   </si>
   <si>
     <t xml:space="preserve">hours</t>
@@ -212,7 +209,7 @@
     <t xml:space="preserve">source_17</t>
   </si>
   <si>
-    <t xml:space="preserve">increase buying odds by factor 5.38762e+02</t>
+    <t xml:space="preserve">increase buying odds by factor 1.34189e+02</t>
   </si>
   <si>
     <t xml:space="preserve">behavior_1</t>
@@ -272,7 +269,7 @@
     <t xml:space="preserve">behavior_a_4</t>
   </si>
   <si>
-    <t xml:space="preserve">behavior_a_5</t>
+    <t xml:space="preserve">behavior_a_6</t>
   </si>
   <si>
     <t xml:space="preserve">behavior_a_8</t>
@@ -353,7 +350,7 @@
     <t xml:space="preserve">d_child_older</t>
   </si>
   <si>
-    <t xml:space="preserve">increase buying odds by factor 9.18210e+00</t>
+    <t xml:space="preserve">increase buying odds by factor 9.84296e+00</t>
   </si>
   <si>
     <t xml:space="preserve">d_politics</t>
@@ -428,7 +425,7 @@
     <t xml:space="preserve">Rotating work schedule – shift work changes in a repeating pattern</t>
   </si>
   <si>
-    <t xml:space="preserve">increase buying odds by factor 5.98978e+01</t>
+    <t xml:space="preserve">increase buying odds by factor 4.74360e+01</t>
   </si>
   <si>
     <t xml:space="preserve">d_work_hours</t>
@@ -846,10 +843,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -892,7 +889,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -938,10 +935,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1013,27 +1010,27 @@
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.70472649500962</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.0437449802760433</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5.4998812165243</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1053,10 +1050,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1079,30 +1076,30 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>2.00820342293992</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0124056105270728</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>7.44992096000526</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1122,10 +1119,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1145,10 +1142,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1168,10 +1165,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1191,10 +1188,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1214,10 +1211,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1237,10 +1234,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1263,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1286,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1309,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1329,10 +1326,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1352,10 +1349,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1378,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1401,7 +1398,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1424,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1444,10 +1441,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1467,10 +1464,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1493,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1516,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1536,10 +1533,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1559,10 +1556,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1582,10 +1579,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1608,7 +1605,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1631,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1651,10 +1648,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1677,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1700,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1720,10 +1717,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1743,10 +1740,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1792,7 +1789,7 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1815,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1835,10 +1832,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1858,10 +1855,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1881,10 +1878,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1907,7 +1904,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1930,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1950,10 +1947,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1973,10 +1970,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1996,10 +1993,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2022,7 +2019,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2045,7 +2042,7 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2065,10 +2062,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2088,10 +2085,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2111,10 +2108,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -2134,10 +2131,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2157,10 +2154,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2180,10 +2177,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2203,10 +2200,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2221,15 +2218,15 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2249,10 +2246,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2267,15 +2264,15 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2318,10 +2315,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2341,10 +2338,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2364,10 +2361,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2387,10 +2384,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2410,30 +2407,30 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C72" t="n">
-        <v>1.47594542976813</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0616978447347235</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>4.37517023438055</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
@@ -2456,10 +2453,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2474,15 +2471,15 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2497,38 +2494,38 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4.89925055588722</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.0316300098063179</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>134.189174703758</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2543,38 +2540,38 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C78" t="n">
-        <v>6.28927398176617</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0252480061201263</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>538.762035997045</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2594,10 +2591,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2617,10 +2614,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2640,10 +2637,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2663,10 +2660,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2709,10 +2706,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2755,10 +2752,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2778,10 +2775,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2801,10 +2798,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2824,10 +2821,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2847,10 +2844,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2870,10 +2867,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
         <v>77</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2893,10 +2890,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2916,10 +2913,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2939,10 +2936,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2962,10 +2959,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2988,7 +2985,7 @@
         <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3011,7 +3008,7 @@
         <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3031,10 +3028,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3057,7 +3054,7 @@
         <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3100,10 +3097,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3123,10 +3120,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3146,10 +3143,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3172,7 +3169,7 @@
         <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3195,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3215,10 +3212,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3238,10 +3235,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3261,10 +3258,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3284,10 +3281,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3307,10 +3304,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3353,10 +3350,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3376,10 +3373,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3399,10 +3396,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3422,10 +3419,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3445,10 +3442,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3491,10 +3488,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3514,10 +3511,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3537,10 +3534,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3560,10 +3557,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3606,10 +3603,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3629,10 +3626,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3652,10 +3649,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3675,10 +3672,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3698,10 +3695,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3716,15 +3713,15 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3744,10 +3741,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3767,10 +3764,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
         <v>92</v>
-      </c>
-      <c r="B131" t="s">
-        <v>95</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3790,10 +3787,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3813,10 +3810,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3836,10 +3833,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3859,10 +3856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B135" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3882,10 +3879,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3905,10 +3902,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -3928,10 +3925,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -3951,10 +3948,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3974,10 +3971,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -3997,10 +3994,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4020,10 +4017,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4043,10 +4040,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4066,10 +4063,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4089,10 +4086,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4112,10 +4109,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4135,10 +4132,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B148" t="s">
         <v>108</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B149" t="s">
         <v>109</v>
@@ -4204,10 +4201,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4227,33 +4224,33 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C151" t="n">
-        <v>2.21725603269632</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0417265019345917</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>9.18210088198804</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4273,10 +4270,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4296,33 +4293,33 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2.28675630579091</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0.0225877247029929</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>9.84295829671312</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" t="s">
         <v>114</v>
-      </c>
-      <c r="B155" t="s">
-        <v>118</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4342,10 +4339,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4365,10 +4362,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B157" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4388,10 +4385,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4411,10 +4408,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4434,10 +4431,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B160" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4457,10 +4454,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>120</v>
+      </c>
+      <c r="B161" t="s">
         <v>121</v>
-      </c>
-      <c r="B161" t="s">
-        <v>125</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4480,10 +4477,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4503,10 +4500,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4526,10 +4523,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4549,10 +4546,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4572,10 +4569,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>126</v>
+      </c>
+      <c r="B166" t="s">
         <v>127</v>
-      </c>
-      <c r="B166" t="s">
-        <v>131</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4595,10 +4592,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B167" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4618,10 +4615,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B169" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4664,10 +4661,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4710,33 +4707,33 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C172" t="n">
-        <v>4.09263899784118</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0122384230793709</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>59.8977533560475</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4751,15 +4748,15 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4779,24 +4776,93 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.85938078709893</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.010048535792206</v>
+      </c>
+      <c r="E175" t="n">
+        <v>47.4359693087465</v>
+      </c>
+      <c r="F175" t="s">
+        <v>137</v>
+      </c>
+      <c r="G175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>138</v>
+      </c>
+      <c r="B176" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" t="s">
         <v>141</v>
       </c>
-      <c r="B175" t="s">
-        <v>143</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" t="s">
         <v>10</v>
       </c>
     </row>
